--- a/biology/Biologie cellulaire et moléculaire/Interleukine_19/Interleukine_19.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Interleukine_19/Interleukine_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,77 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interleukine 19 ou IL-19 appartient à la famille de l'interleukine 10 Cette famille  échange des informations entre les cellules immunitaires et les cellules épithéliales La famille de l'interleukine 10. partagent des sous-unités de récepteurs et des voies de signalisation communes.Tous les membres de la famille des cytokines IL-10 signalent via des récepteurs hétérodimères composés d'une chaîne α et d'une chaîne β  
-Les membres de la sous-famille des cytokines IL-20 signalent à travers un récepteur qui se compose d'au moins une chaîne de récepteur IL-20 (IL-20R). L'IL-20Rβ peut se coupler avec l'IL-20Rα formant l'IL-20R de type I, qui agit comme un récepteur pour l'IL-19, l'IL-20 et l'IL-24. De plus, IL-20Rβ forme avec IL-22Rα l'IL-20R de type II par lequel IL-20 et IL-24 peuvent signaler [1]. L'IL-26, qui n'est présente que chez l'homme et non chez la souris, émet des signaux via le récepteur de l'IL-26 qui se compose d'IL-20Rα et d'IL-10Rβ [2]. De plus, IL-22Rα et IL-10Rβ forment le récepteur IL-22 pour IL-22[1].
+Les membres de la sous-famille des cytokines IL-20 signalent à travers un récepteur qui se compose d'au moins une chaîne de récepteur IL-20 (IL-20R). L'IL-20Rβ peut se coupler avec l'IL-20Rα formant l'IL-20R de type I, qui agit comme un récepteur pour l'IL-19, l'IL-20 et l'IL-24. De plus, IL-20Rβ forme avec IL-22Rα l'IL-20R de type II par lequel IL-20 et IL-24 peuvent signaler . L'IL-26, qui n'est présente que chez l'homme et non chez la souris, émet des signaux via le récepteur de l'IL-26 qui se compose d'IL-20Rα et d'IL-10Rβ . De plus, IL-22Rα et IL-10Rβ forment le récepteur IL-22 pour IL-22.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Interleukine_19</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Interleukine_19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cellules productrices
-Récepteur
-Voie de signalisation
-Voie de transcription
-Cellules cibles
-Synergie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Interleukine_19</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Interleukine_19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rôle dans la maladie
-Rôle protecteur</t>
         </is>
       </c>
     </row>
